--- a/tools/BOM/BOM.xlsx
+++ b/tools/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUL\My Drive\Personal Data\Project\H Gateway\gateway-linux-cm4\tools\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECF570C-0570-48CE-9576-E30E58617B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AF9BE2-8742-4B41-8830-64E1430B1887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,20 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>建议数量</t>
-  </si>
-  <si>
     <t>建议链接</t>
   </si>
   <si>
-    <t>说明</t>
-  </si>
-  <si>
     <t>目前单价</t>
   </si>
   <si>
@@ -91,6 +86,210 @@
   </si>
   <si>
     <t>电源转换芯片</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.73ce2e8dRlgZSZ&amp;id=530538745923&amp;_u=q2neer7p874e</t>
+  </si>
+  <si>
+    <t>拨码开关</t>
+  </si>
+  <si>
+    <t>DF40C-100DS</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.33.15067484FVC1vE&amp;id=677714120170</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=653930592447&amp;spm=a1z09.2.0.0.73ce2e8dRlgZSZ&amp;_u=q2neer7p03a4</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.78.92f238e8bBwfHk&amp;id=665253941862&amp;ns=1&amp;abbucket=4&amp;skuId=4792401396460</t>
+  </si>
+  <si>
+    <t>FFC/FPC连接器</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.90.576d1145XCij8e&amp;id=603691168134&amp;ns=1&amp;abbucket=4&amp;skuId=4402718023263</t>
+  </si>
+  <si>
+    <t>下接</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=525569162448&amp;ali_refid=a3_430008_1006:1125485385:N:OqqNctQLBh2OTBp70JT%2Bme16ytT%2FsHqo:34041fc5bfb712dc01c9b3f5f0381cdc&amp;ali_trackid=1_34041fc5bfb712dc01c9b3f5f0381cdc&amp;spm=a230r.1.0.0</t>
+  </si>
+  <si>
+    <t>RS485/CAN连接器</t>
+  </si>
+  <si>
+    <t>2P,母头</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.33.749d1f55yI9nvx&amp;id=674333126167&amp;ns=1&amp;abbucket=4#detail</t>
+  </si>
+  <si>
+    <t>MINI-PCIE母座</t>
+  </si>
+  <si>
+    <t>0,8和0,4</t>
+  </si>
+  <si>
+    <t>HR911130A以太网</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=668527772135&amp;ali_refid=a3_430620_1006:1255890059:N:pDVZvsRO3VSqvJ3CaU1cLpr9KoKTa43n:279d2b294d1182511d7ad2c41e85bd3a&amp;ali_trackid=1_279d2b294d1182511d7ad2c41e85bd3a&amp;spm=a230r.1.14.1#detail</t>
+  </si>
+  <si>
+    <t>HDMI母座</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/763623.html</t>
+  </si>
+  <si>
+    <t>NPN3904</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>嘉立创</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.1.33df69c9JcxPKl&amp;id=549278191163&amp;ns=1&amp;abbucket=4</t>
+  </si>
+  <si>
+    <t>USB3,0母座</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.37.66fd2254NngwkA&amp;id=672350789432&amp;ns=1&amp;abbucket=4&amp;skuId=4839268180308</t>
+  </si>
+  <si>
+    <t>90°插板</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.16.32521b132gL8fa&amp;id=556694252212&amp;ns=1&amp;abbucket=4&amp;skuId=3447816181459</t>
+  </si>
+  <si>
+    <t>内孔弯头</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.16.36ae5247KQJ4j9&amp;id=623283527051&amp;ns=1&amp;abbucket=4&amp;skuId=4573397366151</t>
+  </si>
+  <si>
+    <t>L76K-A58</t>
+  </si>
+  <si>
+    <t>NANO SIM</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3222536.html</t>
+  </si>
+  <si>
+    <t>2,2uH 0530</t>
+  </si>
+  <si>
+    <t>3,3uH 0530</t>
+  </si>
+  <si>
+    <t>FS312H</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67092e8dh4SZYg&amp;id=634838304759&amp;_u=r2neer7p066e</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/143526.html</t>
+  </si>
+  <si>
+    <t>TJA1042T/3</t>
+  </si>
+  <si>
+    <t>MAX3485</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/698052.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>轻触按键</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z0d.6639537/tb.1997196601.68.68e674849SYQXw&amp;id=548649223044&amp;skuId=3870548557369</t>
+  </si>
+  <si>
+    <t>IPEX</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/508501.html</t>
+  </si>
+  <si>
+    <t>SMAJ12A</t>
+  </si>
+  <si>
+    <t>SMAJ5A</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/152230.html</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/163463.html</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/901535.html</t>
+  </si>
+  <si>
+    <t>1uH 0530</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/188639.html</t>
+  </si>
+  <si>
+    <t>25M无源晶振</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/420955.html</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/352482.html</t>
+  </si>
+  <si>
+    <t>ULC0544P10</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/358590.html</t>
+  </si>
+  <si>
+    <t>SR05</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/539456.html</t>
+  </si>
+  <si>
+    <t>TYPE-C</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3252507.html</t>
+  </si>
+  <si>
+    <t>AP2127_ADJTRG1</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/97547.html</t>
   </si>
 </sst>
 </file>
@@ -438,17 +637,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.88671875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
@@ -459,84 +658,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>603</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>290</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -547,30 +743,424 @@
         <v>13.2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.47</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -581,8 +1171,28 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{CB6F8A8B-2E10-4D1E-BE32-74025C6DB2C3}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{99CE09BB-1911-40FD-801A-B432E28736BB}"/>
     <hyperlink ref="C7" r:id="rId6" location="detail" xr:uid="{E8C5A03E-DA1E-4D25-8282-0A1A49F6CB7B}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{41345F8B-74C6-4B5D-B3C0-B62D152EA208}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{258D9523-F389-4792-AC0D-E7D3087E04FC}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{92B4369A-2B44-4979-8BEF-93EFA2E7086E}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{B132E3E4-42B9-4E27-8696-D0D0A5F709CE}"/>
+    <hyperlink ref="C14" r:id="rId11" location="detail" xr:uid="{652AADBD-5A22-4B53-AD9F-262A26149B93}"/>
+    <hyperlink ref="C15" r:id="rId12" location="detail" xr:uid="{0F328FCB-C261-4CE4-9CBE-EEBB9B213A4F}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{A9386BB1-FD68-42A4-A80A-954795738A18}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{986D7A55-AEC1-4826-BF51-E4AAF2382099}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{7DA8588F-00C4-4589-A721-AA694149D193}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{4D30E799-C692-40B1-940C-8A33B345730E}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{663A612E-12AA-4F1F-8702-0704BA1158E2}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{87365D1C-6AD2-4BC1-9087-03CDAE400243}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{7292FE61-3A87-4FFE-9F37-8B516D346729}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{D5A80214-14DD-4A60-8D4F-262BCAA1151D}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{57015A49-B8E8-4C71-9706-57CB9DBDEDDE}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{E85A88DE-2138-45A6-AEFB-33996CE0F422}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{D0397670-E870-43E8-A746-5852AC48C2E2}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{C8CEF3E4-5772-413E-B1A7-9AA7C9953681}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{23789B95-0935-4C02-BF88-5BBACF543338}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{5C4044C9-D4C0-465F-A7B9-13AC97ADB1D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>